--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
@@ -901,12 +901,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AR25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AQ26" sqref="AQ26"/>
+      <selection pane="topRight" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,9 +917,11 @@
     <col min="40" max="40" width="10.28515625" customWidth="1"/>
     <col min="41" max="41" width="11.7109375" customWidth="1"/>
     <col min="42" max="42" width="10.5703125" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" customWidth="1"/>
+    <col min="44" max="44" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1049,8 +1051,11 @@
       <c r="AQ1" s="1">
         <v>43934</v>
       </c>
+      <c r="AR1" s="1">
+        <v>43935</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1180,8 +1185,11 @@
       <c r="AQ2">
         <v>601</v>
       </c>
+      <c r="AR2">
+        <v>667</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1311,8 +1319,11 @@
       <c r="AQ3">
         <v>596</v>
       </c>
+      <c r="AR3">
+        <v>618</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1442,8 +1453,11 @@
       <c r="AQ4">
         <v>0</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1573,8 +1587,11 @@
       <c r="AQ5">
         <v>153</v>
       </c>
+      <c r="AR5">
+        <v>184</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1704,8 +1721,11 @@
       <c r="AQ6">
         <v>0</v>
       </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1835,8 +1855,11 @@
       <c r="AQ7">
         <v>210</v>
       </c>
+      <c r="AR7">
+        <v>222</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1966,8 +1989,11 @@
       <c r="AQ8">
         <v>31</v>
       </c>
+      <c r="AR8">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2097,8 +2123,11 @@
       <c r="AQ9">
         <v>21</v>
       </c>
+      <c r="AR9">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2228,8 +2257,11 @@
       <c r="AQ10">
         <v>0</v>
       </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2359,8 +2391,11 @@
       <c r="AQ11">
         <v>5</v>
       </c>
+      <c r="AR11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2490,8 +2525,11 @@
       <c r="AQ12">
         <v>5</v>
       </c>
+      <c r="AR12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2621,8 +2659,11 @@
       <c r="AQ13">
         <v>22</v>
       </c>
+      <c r="AR13">
+        <v>28</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2752,8 +2793,11 @@
       <c r="AQ14">
         <v>59</v>
       </c>
+      <c r="AR14">
+        <v>62</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2883,8 +2927,11 @@
       <c r="AQ15">
         <v>3</v>
       </c>
+      <c r="AR15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3014,8 +3061,11 @@
       <c r="AQ16">
         <v>88</v>
       </c>
+      <c r="AR16">
+        <v>90</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3145,8 +3195,11 @@
       <c r="AQ17">
         <v>81</v>
       </c>
+      <c r="AR17">
+        <v>94</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3276,8 +3329,11 @@
       <c r="AQ18">
         <v>3</v>
       </c>
+      <c r="AR18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3407,8 +3463,11 @@
       <c r="AQ19">
         <v>2</v>
       </c>
+      <c r="AR19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3538,8 +3597,11 @@
       <c r="AQ20">
         <v>11</v>
       </c>
+      <c r="AR20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3669,8 +3731,11 @@
       <c r="AQ21">
         <v>40</v>
       </c>
+      <c r="AR21">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3800,8 +3865,11 @@
       <c r="AQ22">
         <v>205</v>
       </c>
+      <c r="AR22">
+        <v>207</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3931,8 +3999,11 @@
       <c r="AQ23">
         <v>12</v>
       </c>
+      <c r="AR23">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4062,8 +4133,11 @@
       <c r="AQ24">
         <v>99</v>
       </c>
+      <c r="AR24">
+        <v>107</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4191,6 +4265,9 @@
         <v>30</v>
       </c>
       <c r="AQ25">
+        <v>30</v>
+      </c>
+      <c r="AR25">
         <v>30</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
@@ -901,12 +901,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AK4" sqref="AK4"/>
+      <selection pane="topRight" activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
     <col min="44" max="44" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1054,8 +1054,14 @@
       <c r="AR1" s="1">
         <v>43935</v>
       </c>
+      <c r="AS1" s="1">
+        <v>43936</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43937</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1188,8 +1194,14 @@
       <c r="AR2">
         <v>667</v>
       </c>
+      <c r="AS2">
+        <v>729</v>
+      </c>
+      <c r="AT2">
+        <v>759</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1322,8 +1334,14 @@
       <c r="AR3">
         <v>618</v>
       </c>
+      <c r="AS3">
+        <v>648</v>
+      </c>
+      <c r="AT3">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1456,8 +1474,14 @@
       <c r="AR4">
         <v>0</v>
       </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1614,14 @@
       <c r="AR5">
         <v>184</v>
       </c>
+      <c r="AS5">
+        <v>191</v>
+      </c>
+      <c r="AT5">
+        <v>202</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1724,8 +1754,14 @@
       <c r="AR6">
         <v>0</v>
       </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1858,8 +1894,14 @@
       <c r="AR7">
         <v>222</v>
       </c>
+      <c r="AS7">
+        <v>228</v>
+      </c>
+      <c r="AT7">
+        <v>241</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1990,10 +2032,16 @@
         <v>31</v>
       </c>
       <c r="AR8">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="AS8">
+        <v>31</v>
+      </c>
+      <c r="AT8">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2126,8 +2174,14 @@
       <c r="AR9">
         <v>21</v>
       </c>
+      <c r="AS9">
+        <v>21</v>
+      </c>
+      <c r="AT9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2260,8 +2314,14 @@
       <c r="AR10">
         <v>0</v>
       </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2394,8 +2454,14 @@
       <c r="AR11">
         <v>5</v>
       </c>
+      <c r="AS11">
+        <v>5</v>
+      </c>
+      <c r="AT11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2528,8 +2594,14 @@
       <c r="AR12">
         <v>5</v>
       </c>
+      <c r="AS12">
+        <v>5</v>
+      </c>
+      <c r="AT12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2662,8 +2734,14 @@
       <c r="AR13">
         <v>28</v>
       </c>
+      <c r="AS13">
+        <v>31</v>
+      </c>
+      <c r="AT13">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2796,8 +2874,14 @@
       <c r="AR14">
         <v>62</v>
       </c>
+      <c r="AS14">
+        <v>63</v>
+      </c>
+      <c r="AT14">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2930,8 +3014,14 @@
       <c r="AR15">
         <v>3</v>
       </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AT15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3064,8 +3154,14 @@
       <c r="AR16">
         <v>90</v>
       </c>
+      <c r="AS16">
+        <v>91</v>
+      </c>
+      <c r="AT16">
+        <v>92</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3198,8 +3294,14 @@
       <c r="AR17">
         <v>94</v>
       </c>
+      <c r="AS17">
+        <v>106</v>
+      </c>
+      <c r="AT17">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3332,8 +3434,14 @@
       <c r="AR18">
         <v>3</v>
       </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3466,8 +3574,14 @@
       <c r="AR19">
         <v>2</v>
       </c>
+      <c r="AS19">
+        <v>2</v>
+      </c>
+      <c r="AT19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3600,8 +3714,14 @@
       <c r="AR20">
         <v>11</v>
       </c>
+      <c r="AS20">
+        <v>11</v>
+      </c>
+      <c r="AT20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3734,8 +3854,14 @@
       <c r="AR21">
         <v>40</v>
       </c>
+      <c r="AS21">
+        <v>40</v>
+      </c>
+      <c r="AT21">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3868,8 +3994,14 @@
       <c r="AR22">
         <v>207</v>
       </c>
+      <c r="AS22">
+        <v>209</v>
+      </c>
+      <c r="AT22">
+        <v>212</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4002,8 +4134,14 @@
       <c r="AR23">
         <v>12</v>
       </c>
+      <c r="AS23">
+        <v>12</v>
+      </c>
+      <c r="AT23">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4136,8 +4274,14 @@
       <c r="AR24">
         <v>107</v>
       </c>
+      <c r="AS24">
+        <v>110</v>
+      </c>
+      <c r="AT24">
+        <v>117</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4268,6 +4412,12 @@
         <v>30</v>
       </c>
       <c r="AR25">
+        <v>30</v>
+      </c>
+      <c r="AS25">
+        <v>30</v>
+      </c>
+      <c r="AT25">
         <v>30</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
@@ -906,7 +906,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AT2" sqref="AT2"/>
+      <selection pane="topRight" activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1338,7 @@
         <v>648</v>
       </c>
       <c r="AT3">
-        <v>63</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="COVID19_Evolution_Confirmed" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -901,12 +902,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AT4" sqref="AT4"/>
+      <selection pane="topRight" activeCell="AU27" sqref="AU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +922,7 @@
     <col min="44" max="44" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1060,8 +1061,14 @@
       <c r="AT1" s="1">
         <v>43937</v>
       </c>
+      <c r="AU1" s="1">
+        <v>43938</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>43939</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1198,10 +1205,16 @@
         <v>729</v>
       </c>
       <c r="AT2">
-        <v>759</v>
+        <v>760</v>
+      </c>
+      <c r="AU2">
+        <v>794</v>
+      </c>
+      <c r="AV2">
+        <v>825</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1340,8 +1353,14 @@
       <c r="AT3">
         <v>663</v>
       </c>
+      <c r="AU3">
+        <v>677</v>
+      </c>
+      <c r="AV3">
+        <v>691</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1480,8 +1499,14 @@
       <c r="AT4">
         <v>0</v>
       </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1645,14 @@
       <c r="AT5">
         <v>202</v>
       </c>
+      <c r="AU5">
+        <v>224</v>
+      </c>
+      <c r="AV5">
+        <v>248</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1758,10 +1789,16 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1900,8 +1937,14 @@
       <c r="AT7">
         <v>241</v>
       </c>
+      <c r="AU7">
+        <v>247</v>
+      </c>
+      <c r="AV7">
+        <v>249</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2040,8 +2083,14 @@
       <c r="AT8">
         <v>31</v>
       </c>
+      <c r="AU8">
+        <v>31</v>
+      </c>
+      <c r="AV8">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2180,8 +2229,14 @@
       <c r="AT9">
         <v>22</v>
       </c>
+      <c r="AU9">
+        <v>22</v>
+      </c>
+      <c r="AV9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2320,8 +2375,14 @@
       <c r="AT10">
         <v>0</v>
       </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2460,8 +2521,14 @@
       <c r="AT11">
         <v>5</v>
       </c>
+      <c r="AU11">
+        <v>5</v>
+      </c>
+      <c r="AV11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2600,8 +2667,14 @@
       <c r="AT12">
         <v>5</v>
       </c>
+      <c r="AU12">
+        <v>5</v>
+      </c>
+      <c r="AV12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2740,8 +2813,14 @@
       <c r="AT13">
         <v>34</v>
       </c>
+      <c r="AU13">
+        <v>35</v>
+      </c>
+      <c r="AV13">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2880,8 +2959,14 @@
       <c r="AT14">
         <v>68</v>
       </c>
+      <c r="AU14">
+        <v>69</v>
+      </c>
+      <c r="AV14">
+        <v>69</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3020,8 +3105,14 @@
       <c r="AT15">
         <v>3</v>
       </c>
+      <c r="AU15">
+        <v>4</v>
+      </c>
+      <c r="AV15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3160,8 +3251,14 @@
       <c r="AT16">
         <v>92</v>
       </c>
+      <c r="AU16">
+        <v>93</v>
+      </c>
+      <c r="AV16">
+        <v>96</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3300,8 +3397,14 @@
       <c r="AT17">
         <v>115</v>
       </c>
+      <c r="AU17">
+        <v>116</v>
+      </c>
+      <c r="AV17">
+        <v>119</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3440,8 +3543,14 @@
       <c r="AT18">
         <v>3</v>
       </c>
+      <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3580,8 +3689,14 @@
       <c r="AT19">
         <v>2</v>
       </c>
+      <c r="AU19">
+        <v>2</v>
+      </c>
+      <c r="AV19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3720,8 +3835,14 @@
       <c r="AT20">
         <v>11</v>
       </c>
+      <c r="AU20">
+        <v>11</v>
+      </c>
+      <c r="AV20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3860,8 +3981,14 @@
       <c r="AT21">
         <v>40</v>
       </c>
+      <c r="AU21">
+        <v>40</v>
+      </c>
+      <c r="AV21">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4000,8 +4127,14 @@
       <c r="AT22">
         <v>212</v>
       </c>
+      <c r="AU22">
+        <v>218</v>
+      </c>
+      <c r="AV22">
+        <v>221</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4140,8 +4273,14 @@
       <c r="AT23">
         <v>12</v>
       </c>
+      <c r="AU23">
+        <v>12</v>
+      </c>
+      <c r="AV23">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4280,8 +4419,14 @@
       <c r="AT24">
         <v>117</v>
       </c>
+      <c r="AU24">
+        <v>119</v>
+      </c>
+      <c r="AV24">
+        <v>119</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4418,6 +4563,12 @@
         <v>30</v>
       </c>
       <c r="AT25">
+        <v>30</v>
+      </c>
+      <c r="AU25">
+        <v>30</v>
+      </c>
+      <c r="AV25">
         <v>30</v>
       </c>
     </row>
@@ -4425,4 +4576,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
@@ -902,12 +902,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AU27" sqref="AU27"/>
+      <selection pane="topRight" activeCell="BA23" sqref="BA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
     <col min="44" max="44" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1067,8 +1067,17 @@
       <c r="AV1" s="1">
         <v>43939</v>
       </c>
+      <c r="AW1" s="1">
+        <v>43940</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>43941</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>43942</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1213,8 +1222,17 @@
       <c r="AV2">
         <v>825</v>
       </c>
+      <c r="AW2">
+        <v>873</v>
+      </c>
+      <c r="AX2">
+        <v>915</v>
+      </c>
+      <c r="AY2">
+        <v>975</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1359,8 +1377,17 @@
       <c r="AV3">
         <v>691</v>
       </c>
+      <c r="AW3">
+        <v>706</v>
+      </c>
+      <c r="AX3">
+        <v>728</v>
+      </c>
+      <c r="AY3">
+        <v>761</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1505,8 +1532,17 @@
       <c r="AV4">
         <v>0</v>
       </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1687,17 @@
       <c r="AV5">
         <v>248</v>
       </c>
+      <c r="AW5">
+        <v>253</v>
+      </c>
+      <c r="AX5">
+        <v>258</v>
+      </c>
+      <c r="AY5">
+        <v>263</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1797,8 +1842,17 @@
       <c r="AV6">
         <v>1</v>
       </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1943,8 +1997,17 @@
       <c r="AV7">
         <v>249</v>
       </c>
+      <c r="AW7">
+        <v>260</v>
+      </c>
+      <c r="AX7">
+        <v>260</v>
+      </c>
+      <c r="AY7">
+        <v>260</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2089,8 +2152,17 @@
       <c r="AV8">
         <v>31</v>
       </c>
+      <c r="AW8">
+        <v>31</v>
+      </c>
+      <c r="AX8">
+        <v>34</v>
+      </c>
+      <c r="AY8">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2235,8 +2307,17 @@
       <c r="AV9">
         <v>22</v>
       </c>
+      <c r="AW9">
+        <v>22</v>
+      </c>
+      <c r="AX9">
+        <v>22</v>
+      </c>
+      <c r="AY9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2381,8 +2462,17 @@
       <c r="AV10">
         <v>0</v>
       </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2527,8 +2617,17 @@
       <c r="AV11">
         <v>5</v>
       </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>5</v>
+      </c>
+      <c r="AY11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2673,8 +2772,17 @@
       <c r="AV12">
         <v>5</v>
       </c>
+      <c r="AW12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>5</v>
+      </c>
+      <c r="AY12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2819,8 +2927,17 @@
       <c r="AV13">
         <v>35</v>
       </c>
+      <c r="AW13">
+        <v>39</v>
+      </c>
+      <c r="AX13">
+        <v>39</v>
+      </c>
+      <c r="AY13">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2965,8 +3082,17 @@
       <c r="AV14">
         <v>69</v>
       </c>
+      <c r="AW14">
+        <v>72</v>
+      </c>
+      <c r="AX14">
+        <v>73</v>
+      </c>
+      <c r="AY14">
+        <v>73</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3111,8 +3237,17 @@
       <c r="AV15">
         <v>5</v>
       </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>5</v>
+      </c>
+      <c r="AY15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3257,8 +3392,17 @@
       <c r="AV16">
         <v>96</v>
       </c>
+      <c r="AW16">
+        <v>99</v>
+      </c>
+      <c r="AX16">
+        <v>102</v>
+      </c>
+      <c r="AY16">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3403,8 +3547,17 @@
       <c r="AV17">
         <v>119</v>
       </c>
+      <c r="AW17">
+        <v>127</v>
+      </c>
+      <c r="AX17">
+        <v>137</v>
+      </c>
+      <c r="AY17">
+        <v>148</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3549,8 +3702,17 @@
       <c r="AV18">
         <v>3</v>
       </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3695,8 +3857,17 @@
       <c r="AV19">
         <v>2</v>
       </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3841,8 +4012,17 @@
       <c r="AV20">
         <v>11</v>
       </c>
+      <c r="AW20">
+        <v>11</v>
+      </c>
+      <c r="AX20">
+        <v>11</v>
+      </c>
+      <c r="AY20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3987,8 +4167,17 @@
       <c r="AV21">
         <v>40</v>
       </c>
+      <c r="AW21">
+        <v>40</v>
+      </c>
+      <c r="AX21">
+        <v>41</v>
+      </c>
+      <c r="AY21">
+        <v>41</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4133,8 +4322,17 @@
       <c r="AV22">
         <v>221</v>
       </c>
+      <c r="AW22">
+        <v>222</v>
+      </c>
+      <c r="AX22">
+        <v>224</v>
+      </c>
+      <c r="AY22">
+        <v>225</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4279,8 +4477,17 @@
       <c r="AV23">
         <v>12</v>
       </c>
+      <c r="AW23">
+        <v>12</v>
+      </c>
+      <c r="AX23">
+        <v>12</v>
+      </c>
+      <c r="AY23">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4425,8 +4632,17 @@
       <c r="AV24">
         <v>119</v>
       </c>
+      <c r="AW24">
+        <v>122</v>
+      </c>
+      <c r="AX24">
+        <v>122</v>
+      </c>
+      <c r="AY24">
+        <v>124</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4570,6 +4786,15 @@
       </c>
       <c r="AV25">
         <v>30</v>
+      </c>
+      <c r="AW25">
+        <v>30</v>
+      </c>
+      <c r="AX25">
+        <v>31</v>
+      </c>
+      <c r="AY25">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
@@ -902,12 +902,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="BA23" sqref="BA23"/>
+      <selection pane="topRight" activeCell="AZ25" sqref="AZ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
     <col min="44" max="44" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1076,8 +1076,11 @@
       <c r="AY1" s="1">
         <v>43942</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>43943</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1231,8 +1234,11 @@
       <c r="AY2">
         <v>975</v>
       </c>
+      <c r="AZ2">
+        <v>1036</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1386,8 +1392,11 @@
       <c r="AY3">
         <v>761</v>
       </c>
+      <c r="AZ3">
+        <v>800</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1541,8 +1550,11 @@
       <c r="AY4">
         <v>0</v>
       </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1696,8 +1708,11 @@
       <c r="AY5">
         <v>263</v>
       </c>
+      <c r="AZ5">
+        <v>270</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1851,8 +1866,11 @@
       <c r="AY6">
         <v>2</v>
       </c>
+      <c r="AZ6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2006,8 +2024,11 @@
       <c r="AY7">
         <v>260</v>
       </c>
+      <c r="AZ7">
+        <v>264</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2161,8 +2182,11 @@
       <c r="AY8">
         <v>34</v>
       </c>
+      <c r="AZ8">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2316,8 +2340,11 @@
       <c r="AY9">
         <v>22</v>
       </c>
+      <c r="AZ9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2471,8 +2498,11 @@
       <c r="AY10">
         <v>0</v>
       </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2626,8 +2656,11 @@
       <c r="AY11">
         <v>5</v>
       </c>
+      <c r="AZ11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2781,8 +2814,11 @@
       <c r="AY12">
         <v>5</v>
       </c>
+      <c r="AZ12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2936,8 +2972,11 @@
       <c r="AY13">
         <v>40</v>
       </c>
+      <c r="AZ13">
+        <v>45</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3091,8 +3130,11 @@
       <c r="AY14">
         <v>73</v>
       </c>
+      <c r="AZ14">
+        <v>74</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3246,8 +3288,11 @@
       <c r="AY15">
         <v>5</v>
       </c>
+      <c r="AZ15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3401,8 +3446,11 @@
       <c r="AY16">
         <v>102</v>
       </c>
+      <c r="AZ16">
+        <v>103</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3556,8 +3604,11 @@
       <c r="AY17">
         <v>148</v>
       </c>
+      <c r="AZ17">
+        <v>165</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3711,8 +3762,11 @@
       <c r="AY18">
         <v>3</v>
       </c>
+      <c r="AZ18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3866,8 +3920,11 @@
       <c r="AY19">
         <v>2</v>
       </c>
+      <c r="AZ19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4021,8 +4078,11 @@
       <c r="AY20">
         <v>11</v>
       </c>
+      <c r="AZ20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4176,8 +4236,11 @@
       <c r="AY21">
         <v>41</v>
       </c>
+      <c r="AZ21">
+        <v>41</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4331,8 +4394,11 @@
       <c r="AY22">
         <v>225</v>
       </c>
+      <c r="AZ22">
+        <v>230</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4486,8 +4552,11 @@
       <c r="AY23">
         <v>12</v>
       </c>
+      <c r="AZ23">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4641,8 +4710,11 @@
       <c r="AY24">
         <v>124</v>
       </c>
+      <c r="AZ24">
+        <v>124</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4795,6 +4867,9 @@
       </c>
       <c r="AY25">
         <v>31</v>
+      </c>
+      <c r="AZ25">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Confirmed.xlsx
@@ -902,12 +902,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ25"/>
+  <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AZ25" sqref="AZ25"/>
+      <selection pane="topRight" activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
     <col min="44" max="44" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1079,8 +1079,11 @@
       <c r="AZ1" s="1">
         <v>43943</v>
       </c>
+      <c r="BA1" s="1">
+        <v>43944</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1237,8 +1240,11 @@
       <c r="AZ2">
         <v>1036</v>
       </c>
+      <c r="BA2">
+        <v>1120</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1395,8 +1401,11 @@
       <c r="AZ3">
         <v>800</v>
       </c>
+      <c r="BA3">
+        <v>837</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1553,8 +1562,11 @@
       <c r="AZ4">
         <v>0</v>
       </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1711,8 +1723,11 @@
       <c r="AZ5">
         <v>270</v>
       </c>
+      <c r="BA5">
+        <v>280</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1869,8 +1884,11 @@
       <c r="AZ6">
         <v>2</v>
       </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2027,8 +2045,11 @@
       <c r="AZ7">
         <v>264</v>
       </c>
+      <c r="BA7">
+        <v>266</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2185,8 +2206,11 @@
       <c r="AZ8">
         <v>34</v>
       </c>
+      <c r="BA8">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2343,8 +2367,11 @@
       <c r="AZ9">
         <v>22</v>
       </c>
+      <c r="BA9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2501,8 +2528,11 @@
       <c r="AZ10">
         <v>0</v>
       </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2659,8 +2689,11 @@
       <c r="AZ11">
         <v>5</v>
       </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2817,8 +2850,11 @@
       <c r="AZ12">
         <v>5</v>
       </c>
+      <c r="BA12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2975,8 +3011,11 @@
       <c r="AZ13">
         <v>45</v>
       </c>
+      <c r="BA13">
+        <v>45</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3133,8 +3172,11 @@
       <c r="AZ14">
         <v>74</v>
       </c>
+      <c r="BA14">
+        <v>75</v>
+      </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3291,8 +3333,11 @@
       <c r="AZ15">
         <v>5</v>
       </c>
+      <c r="BA15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3449,8 +3494,11 @@
       <c r="AZ16">
         <v>103</v>
       </c>
+      <c r="BA16">
+        <v>104</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3607,8 +3655,11 @@
       <c r="AZ17">
         <v>165</v>
       </c>
+      <c r="BA17">
+        <v>169</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3765,8 +3816,11 @@
       <c r="AZ18">
         <v>3</v>
       </c>
+      <c r="BA18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3923,8 +3977,11 @@
       <c r="AZ19">
         <v>2</v>
       </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4081,8 +4138,11 @@
       <c r="AZ20">
         <v>11</v>
       </c>
+      <c r="BA20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4239,8 +4299,11 @@
       <c r="AZ21">
         <v>41</v>
       </c>
+      <c r="BA21">
+        <v>41</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4397,8 +4460,11 @@
       <c r="AZ22">
         <v>230</v>
       </c>
+      <c r="BA22">
+        <v>236</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4555,8 +4621,11 @@
       <c r="AZ23">
         <v>12</v>
       </c>
+      <c r="BA23">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4713,8 +4782,11 @@
       <c r="AZ24">
         <v>124</v>
       </c>
+      <c r="BA24">
+        <v>125</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4869,6 +4941,9 @@
         <v>31</v>
       </c>
       <c r="AZ25">
+        <v>35</v>
+      </c>
+      <c r="BA25">
         <v>35</v>
       </c>
     </row>
